--- a/biology/Botanique/Commelinidées/Commelinidées.xlsx
+++ b/biology/Botanique/Commelinidées/Commelinidées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commelinid%C3%A9es</t>
+          <t>Commelinidées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Commelinidées forment un clade de plantes monocotylédones dans la classification APG III (2009) qui comprend quatre ordres, ainsi qu'une famille rangée sans ordre.
 La famille des Dasypogonaceae comprend des plantes herbacées ou arborescentes, rhizomateuses, des zones arides d'Australie.
@@ -488,7 +500,7 @@
 L’ordre Commelinales comprend des plantes herbacées, annuelles ou pérennes et rhizomateuses des zones subtropicales, parfois aquatiques comme la jacinthe d'eau.
 L’ordre Poales inclut la plupart des herbes et plantes apparentées, comme le bambou.
 L’ordre Zingiberales tient son nom du gingembre, comprend huit familles et réunit des herbacées tropicales parfois arborescentes comme l’arbre du voyageur.
-Leur composition et leur emplacement sur l'arbre phylogénétique du vivant sont détaillés par le cladogramme suivant[1] :
+Leur composition et leur emplacement sur l'arbre phylogénétique du vivant sont détaillés par le cladogramme suivant :
 groupe des Mésangiospermes (Mesangiospermae)
 Chloranthales
 clade des Magnoliidées (Magnoliidae)
